--- a/2021项目对接/03-04 超e保2021/超e保产品页面关系.xlsx
+++ b/2021项目对接/03-04 超e保2021/超e保产品页面关系.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>I19NO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wpttest.healthlink.cn/wpt-api/taiping/html/index.html?partner=tprs&amp;productId=I21AE4&amp;userId=01940850656</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I21AE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平人寿线上医生超e保2021增值服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -182,6 +194,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -581,6 +594,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -589,8 +613,9 @@
     <hyperlink ref="C5" r:id="rId3"/>
     <hyperlink ref="C2" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>